--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3841.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3841.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.289680175570665</v>
+        <v>3.575835466384888</v>
       </c>
       <c r="B1">
-        <v>2.152977847551245</v>
+        <v>7.313015460968018</v>
       </c>
       <c r="C1">
-        <v>4.555738023382063</v>
+        <v>7.071954250335693</v>
       </c>
       <c r="D1">
-        <v>3.62256746729663</v>
+        <v>6.377043724060059</v>
       </c>
       <c r="E1">
-        <v>1.092351933650809</v>
+        <v>3.362801551818848</v>
       </c>
     </row>
   </sheetData>
